--- a/Resultats exp bag_couverts/Resultats exp bag_couverts/Tableau récapitulatif - new algo.xlsx
+++ b/Resultats exp bag_couverts/Resultats exp bag_couverts/Tableau récapitulatif - new algo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" state="visible" r:id="rId1"/>
@@ -585,19 +585,19 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
     <col width="11.6640625" customWidth="1" style="4" min="1" max="1"/>
-    <col width="14.109375" customWidth="1" style="4" min="2" max="2"/>
+    <col width="14.1328125" customWidth="1" style="4" min="2" max="2"/>
     <col width="47.33203125" customWidth="1" style="4" min="3" max="3"/>
-    <col width="20.109375" customWidth="1" style="4" min="4" max="4"/>
-    <col width="14.44140625" customWidth="1" style="4" min="5" max="5"/>
+    <col width="20.1328125" customWidth="1" style="4" min="4" max="4"/>
+    <col width="14.46484375" customWidth="1" style="4" min="5" max="5"/>
     <col width="13.6640625" customWidth="1" style="4" min="6" max="9"/>
     <col width="11" customWidth="1" style="4" min="10" max="10"/>
     <col width="36.6640625" customWidth="1" style="4" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.95" customHeight="1">
+    <row r="1" ht="32" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
@@ -654,7 +654,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="31.95" customHeight="1">
+    <row r="2" ht="32" customHeight="1">
       <c r="A2" s="2" t="n">
         <v>45439</v>
       </c>
@@ -698,7 +698,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="31.95" customHeight="1">
+    <row r="3" ht="32" customHeight="1">
       <c r="A3" s="2" t="n">
         <v>45439</v>
       </c>
@@ -742,7 +742,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="31.95" customHeight="1">
+    <row r="4" ht="32" customHeight="1">
       <c r="A4" s="2" t="n">
         <v>45439</v>
       </c>
@@ -786,7 +786,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="31.95" customHeight="1">
+    <row r="5" ht="32" customHeight="1">
       <c r="A5" s="2" t="n">
         <v>45439</v>
       </c>
@@ -830,7 +830,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="31.95" customHeight="1">
+    <row r="6" ht="32" customHeight="1">
       <c r="A6" s="2" t="n">
         <v>45439</v>
       </c>
@@ -874,7 +874,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="31.95" customHeight="1">
+    <row r="7" ht="32" customHeight="1">
       <c r="A7" s="2" t="n">
         <v>45439</v>
       </c>
@@ -918,7 +918,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="31.95" customHeight="1">
+    <row r="8" ht="32" customHeight="1">
       <c r="A8" s="2" t="n">
         <v>45440</v>
       </c>
@@ -962,7 +962,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="31.95" customHeight="1">
+    <row r="9" ht="32" customHeight="1">
       <c r="A9" s="2" t="n">
         <v>45440</v>
       </c>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="31.95" customHeight="1">
+    <row r="10" ht="32" customHeight="1">
       <c r="A10" s="2" t="n">
         <v>45440</v>
       </c>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="31.95" customHeight="1">
+    <row r="11" ht="32" customHeight="1">
       <c r="A11" s="2" t="n">
         <v>45440</v>
       </c>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="31.95" customHeight="1">
+    <row r="12" ht="32" customHeight="1">
       <c r="A12" s="2" t="n">
         <v>45440</v>
       </c>
@@ -1158,7 +1158,7 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -2246,12 +2246,12 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col width="39.77734375" customWidth="1" min="20" max="20"/>
+    <col width="39.796875" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Resultats exp bag_couverts/Resultats exp bag_couverts/Tableau récapitulatif - new algo.xlsx
+++ b/Resultats exp bag_couverts/Resultats exp bag_couverts/Tableau récapitulatif - new algo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="700" windowWidth="23260" windowHeight="12460" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -32,6 +32,12 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -575,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Feuil1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -585,13 +591,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="11.6640625" customWidth="1" style="4" min="1" max="1"/>
-    <col width="14.1328125" customWidth="1" style="4" min="2" max="2"/>
+    <col width="14.1640625" customWidth="1" style="4" min="2" max="2"/>
     <col width="47.33203125" customWidth="1" style="4" min="3" max="3"/>
-    <col width="20.1328125" customWidth="1" style="4" min="4" max="4"/>
-    <col width="14.46484375" customWidth="1" style="4" min="5" max="5"/>
+    <col width="20.1640625" customWidth="1" style="4" min="4" max="4"/>
+    <col width="14.5" customWidth="1" style="4" min="5" max="5"/>
     <col width="13.6640625" customWidth="1" style="4" min="6" max="9"/>
     <col width="11" customWidth="1" style="4" min="10" max="10"/>
     <col width="36.6640625" customWidth="1" style="4" min="11" max="11"/>
@@ -1148,7 +1154,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Feuil2">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1158,7 +1164,7 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -2239,19 +2245,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Feuil3">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="39.796875" customWidth="1" min="20" max="20"/>
+    <col width="39.83203125" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2403,25 +2409,25 @@
         <v>199</v>
       </c>
       <c r="M2" s="6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" s="6" t="n">
-        <v>123.515</v>
+        <v>125.941</v>
       </c>
       <c r="O2" s="6" t="n">
-        <v>5.882</v>
+        <v>5.476</v>
       </c>
       <c r="P2" s="6" t="n">
         <v>20.21499999999997</v>
       </c>
       <c r="Q2" s="6" t="n">
-        <v>0.6070000000000277</v>
+        <v>0.4039999999999964</v>
       </c>
       <c r="R2" s="6" t="n">
-        <v>42.5</v>
+        <v>43.3</v>
       </c>
       <c r="S2" s="6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T2" s="6" t="inlineStr">
         <is>
@@ -2476,22 +2482,22 @@
         <v>191</v>
       </c>
       <c r="M3" s="6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N3" s="6" t="n">
-        <v>62.67899999999986</v>
+        <v>63.28499999999997</v>
       </c>
       <c r="O3" s="6" t="n">
-        <v>4.821</v>
+        <v>4.868</v>
       </c>
       <c r="P3" s="6" t="n">
         <v>7.077999999999975</v>
       </c>
       <c r="Q3" s="6" t="n">
-        <v>0.6059999999999945</v>
+        <v>0.2010000000000218</v>
       </c>
       <c r="R3" s="6" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="S3" s="6" t="n">
         <v>13</v>
@@ -2604,25 +2610,25 @@
         <v>141</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>85.21100000000007</v>
+        <v>92.68900000000005</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>2.749</v>
+        <v>2.575</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>8.898000000000025</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>0.4039999999999964</v>
+        <v>0.2019999999999982</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>31.3</v>
+        <v>34</v>
       </c>
       <c r="S5" s="6" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T5" s="6" t="inlineStr">
         <is>
@@ -2677,22 +2683,22 @@
         <v>169</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>89.36900000000026</v>
+        <v>90.38000000000022</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>4.704</v>
+        <v>4.757</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>8.492000000000075</v>
       </c>
       <c r="Q6" s="6" t="n">
-        <v>1.010999999999967</v>
+        <v>0.2029999999999745</v>
       </c>
       <c r="R6" s="6" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="S6" s="6" t="n">
         <v>19</v>
@@ -2750,25 +2756,25 @@
         <v>177</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>114.8330000000005</v>
+        <v>116.2470000000005</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>5.22</v>
+        <v>5.054</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>14.15499999999997</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <v>0.40300000000002</v>
+        <v>0.2019999999999982</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="S7" s="6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T7" s="6" t="inlineStr">
         <is>
@@ -2823,25 +2829,25 @@
         <v>160</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>84.45599999999988</v>
+        <v>87.48799999999991</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>2.912</v>
+        <v>2.822</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>8.44599999999997</v>
       </c>
       <c r="Q8" s="6" t="n">
-        <v>0.4329999999999927</v>
+        <v>0.2160000000000082</v>
       </c>
       <c r="R8" s="6" t="n">
-        <v>29.3</v>
+        <v>30.3</v>
       </c>
       <c r="S8" s="6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T8" s="6" t="inlineStr">
         <is>
@@ -2896,25 +2902,25 @@
         <v>175</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>50.2439999999998</v>
+        <v>51.97699999999975</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>2.644</v>
+        <v>2.599</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>3.897999999999911</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>0.4329999999999927</v>
+        <v>0.2169999999999845</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>23.6</v>
+        <v>24.4</v>
       </c>
       <c r="S9" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T9" s="6" t="inlineStr">
         <is>
@@ -2969,25 +2975,25 @@
         <v>34</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>26.63600000000008</v>
+        <v>28.58600000000001</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>3.805</v>
+        <v>3.573</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>10.39499999999998</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0.8670000000000755</v>
+        <v>0.4329999999999927</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>48.8</v>
+        <v>52.4</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T10" s="6" t="inlineStr">
         <is>
@@ -3042,25 +3048,25 @@
         <v>131</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>102.864</v>
+        <v>106.545</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>4.898</v>
+        <v>4.843</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>8.444999999999993</v>
       </c>
       <c r="Q11" s="6" t="n">
-        <v>0.4340000000000259</v>
+        <v>0.2160000000000082</v>
       </c>
       <c r="R11" s="6" t="n">
-        <v>37</v>
+        <v>38.3</v>
       </c>
       <c r="S11" s="6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T11" s="6" t="inlineStr">
         <is>
@@ -3188,13 +3194,13 @@
         <v>115</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>193.3860000000008</v>
+        <v>197.0660000000009</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>7.438</v>
+        <v>7.299</v>
       </c>
       <c r="P13" s="6" t="n">
         <v>14.07600000000002</v>
@@ -3203,10 +3209,10 @@
         <v>0.4329999999999927</v>
       </c>
       <c r="R13" s="6" t="n">
-        <v>44.5</v>
+        <v>45.3</v>
       </c>
       <c r="S13" s="6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T13" s="6" t="inlineStr">
         <is>
@@ -3261,25 +3267,25 @@
         <v>117</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>45.4799999999999</v>
+        <v>46.77899999999991</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>2.274</v>
+        <v>2.228</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>3.68199999999996</v>
       </c>
       <c r="Q14" s="6" t="n">
-        <v>0.8659999999999854</v>
+        <v>0.2160000000000082</v>
       </c>
       <c r="R14" s="6" t="n">
-        <v>17.2</v>
+        <v>17.7</v>
       </c>
       <c r="S14" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T14" s="6" t="inlineStr">
         <is>
@@ -3334,22 +3340,22 @@
         <v>131</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>90.30099999999982</v>
+        <v>90.71799999999973</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>5.017</v>
+        <v>5.04</v>
       </c>
       <c r="P15" s="6" t="n">
         <v>9.312000000000012</v>
       </c>
       <c r="Q15" s="6" t="n">
-        <v>0.6499999999999773</v>
+        <v>0.4169999999999163</v>
       </c>
       <c r="R15" s="6" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="S15" s="6" t="n">
         <v>18</v>
@@ -3407,19 +3413,19 @@
         <v>178</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>203.7650000000004</v>
+        <v>204.1970000000005</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>7.277</v>
+        <v>7.293</v>
       </c>
       <c r="P16" s="6" t="n">
         <v>13.42600000000016</v>
       </c>
       <c r="Q16" s="6" t="n">
-        <v>0.4169999999999163</v>
+        <v>0.2160000000000082</v>
       </c>
       <c r="R16" s="6" t="n">
         <v>44.8</v>
@@ -3480,25 +3486,25 @@
         <v>106</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>83.3769999999999</v>
+        <v>91.39199999999988</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>3.474</v>
+        <v>3.264</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>10.39499999999998</v>
       </c>
       <c r="Q17" s="6" t="n">
-        <v>0.6500000000000341</v>
+        <v>0.2169999999999845</v>
       </c>
       <c r="R17" s="6" t="n">
-        <v>28.6</v>
+        <v>31.4</v>
       </c>
       <c r="S17" s="6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="T17" s="6" t="inlineStr">
         <is>
@@ -3553,25 +3559,25 @@
         <v>120</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>80.77400000000011</v>
+        <v>84.45600000000002</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>6.213</v>
+        <v>6.033</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>9.312999999999988</v>
       </c>
       <c r="Q18" s="6" t="n">
-        <v>1.081999999999994</v>
+        <v>0.2169999999999845</v>
       </c>
       <c r="R18" s="6" t="n">
-        <v>34.2</v>
+        <v>35.7</v>
       </c>
       <c r="S18" s="6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T18" s="6" t="inlineStr">
         <is>
@@ -3626,25 +3632,25 @@
         <v>173</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>148.0219999999997</v>
+        <v>152.7849999999997</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>3.218</v>
+        <v>3.056</v>
       </c>
       <c r="P19" s="6" t="n">
         <v>13.21100000000001</v>
       </c>
       <c r="Q19" s="6" t="n">
-        <v>0.6490000000000009</v>
+        <v>0.4329999999999927</v>
       </c>
       <c r="R19" s="6" t="n">
-        <v>33.5</v>
+        <v>34.5</v>
       </c>
       <c r="S19" s="6" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T19" s="6" t="inlineStr">
         <is>
@@ -3699,25 +3705,25 @@
         <v>131</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>126.6689999999999</v>
+        <v>127.0729999999999</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>6.333</v>
+        <v>6.051</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>14.572</v>
       </c>
       <c r="Q20" s="6" t="n">
-        <v>0.6070000000000846</v>
+        <v>0.4039999999999964</v>
       </c>
       <c r="R20" s="6" t="n">
-        <v>55.3</v>
+        <v>55.5</v>
       </c>
       <c r="S20" s="6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T20" s="6" t="inlineStr">
         <is>
@@ -3772,22 +3778,22 @@
         <v>125</v>
       </c>
       <c r="M21" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>123.0040000000001</v>
+        <v>123.4080000000001</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>7.236</v>
+        <v>7.259</v>
       </c>
       <c r="P21" s="6" t="n">
         <v>18.005</v>
       </c>
       <c r="Q21" s="6" t="n">
-        <v>1.41700000000003</v>
+        <v>0.4039999999999964</v>
       </c>
       <c r="R21" s="6" t="n">
-        <v>52.4</v>
+        <v>52.6</v>
       </c>
       <c r="S21" s="6" t="n">
         <v>17</v>
@@ -3918,13 +3924,13 @@
         <v>131</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>112.0950000000001</v>
+        <v>116.1420000000001</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>4.311</v>
+        <v>4.302</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>9.710000000000036</v>
@@ -3933,10 +3939,10 @@
         <v>0.6069999999999709</v>
       </c>
       <c r="R23" s="6" t="n">
-        <v>48.4</v>
+        <v>50.2</v>
       </c>
       <c r="S23" s="6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T23" s="6" t="inlineStr">
         <is>
@@ -3991,22 +3997,22 @@
         <v>201</v>
       </c>
       <c r="M24" s="6" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>114.9089999999999</v>
+        <v>116.3249999999999</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>4.104</v>
+        <v>4.154</v>
       </c>
       <c r="P24" s="6" t="n">
         <v>13.149</v>
       </c>
       <c r="Q24" s="6" t="n">
-        <v>0.4039999999999964</v>
+        <v>0.2019999999999982</v>
       </c>
       <c r="R24" s="6" t="n">
-        <v>47.8</v>
+        <v>48.4</v>
       </c>
       <c r="S24" s="6" t="n">
         <v>28</v>
@@ -4064,25 +4070,25 @@
         <v>103</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>101.9590000000001</v>
+        <v>103.3760000000003</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>5.366</v>
+        <v>5.169</v>
       </c>
       <c r="P25" s="6" t="n">
         <v>14.36200000000008</v>
       </c>
       <c r="Q25" s="6" t="n">
-        <v>1.212999999999965</v>
+        <v>0.2030000000002019</v>
       </c>
       <c r="R25" s="6" t="n">
-        <v>51.4</v>
+        <v>52.1</v>
       </c>
       <c r="S25" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T25" s="6" t="inlineStr">
         <is>
@@ -4137,25 +4143,25 @@
         <v>176</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>68.45300000000009</v>
+        <v>70.61800000000005</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>3.603</v>
+        <v>3.531</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>9.964999999999975</v>
       </c>
       <c r="Q26" s="6" t="n">
-        <v>0.6499999999999773</v>
+        <v>0.6490000000000009</v>
       </c>
       <c r="R26" s="6" t="n">
-        <v>33.9</v>
+        <v>35</v>
       </c>
       <c r="S26" s="6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T26" s="6" t="inlineStr">
         <is>
@@ -4210,22 +4216,22 @@
         <v>142</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>85.78899999999987</v>
+        <v>87.9549999999997</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>5.719</v>
+        <v>5.864</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>10.18200000000002</v>
       </c>
       <c r="Q27" s="6" t="n">
-        <v>0.6510000000000673</v>
+        <v>0.2159999999998945</v>
       </c>
       <c r="R27" s="6" t="n">
-        <v>40.2</v>
+        <v>41.3</v>
       </c>
       <c r="S27" s="6" t="n">
         <v>15</v>
@@ -4283,22 +4289,22 @@
         <v>164</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>60.0310000000004</v>
+        <v>61.97900000000072</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>4.618</v>
+        <v>4.768</v>
       </c>
       <c r="P28" s="6" t="n">
         <v>7.149000000000115</v>
       </c>
       <c r="Q28" s="6" t="n">
-        <v>0.4339999999999691</v>
+        <v>0.2160000000001219</v>
       </c>
       <c r="R28" s="6" t="n">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="S28" s="6" t="n">
         <v>13</v>
@@ -4350,31 +4356,31 @@
         <v>2</v>
       </c>
       <c r="K29" s="6" t="n">
-        <v>234.175</v>
+        <v>7.798000000000002</v>
       </c>
       <c r="L29" s="6" t="n">
-        <v>-877</v>
+        <v>-1042</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>90.1940000000003</v>
+        <v>91.06100000000026</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>3.341</v>
+        <v>3.252</v>
       </c>
       <c r="P29" s="6" t="n">
         <v>6.499000000000024</v>
       </c>
       <c r="Q29" s="6" t="n">
-        <v>0.4409999999999741</v>
+        <v>0.2169999999999845</v>
       </c>
       <c r="R29" s="6" t="n">
-        <v>38.5</v>
+        <v>1167.7</v>
       </c>
       <c r="S29" s="6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T29" s="6" t="inlineStr">
         <is>
@@ -4429,25 +4435,25 @@
         <v>106</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>51.55700000000013</v>
+        <v>55.67200000000003</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>3.222</v>
+        <v>3.275</v>
       </c>
       <c r="P30" s="6" t="n">
         <v>5.633000000000038</v>
       </c>
       <c r="Q30" s="6" t="n">
-        <v>0.4329999999999927</v>
+        <v>0.2160000000000082</v>
       </c>
       <c r="R30" s="6" t="n">
-        <v>22.3</v>
+        <v>24.1</v>
       </c>
       <c r="S30" s="6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T30" s="6" t="inlineStr">
         <is>
@@ -4502,25 +4508,25 @@
         <v>85</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>47.09099999999978</v>
+        <v>59.65799999999945</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>3.924</v>
+        <v>3.977</v>
       </c>
       <c r="P31" s="6" t="n">
         <v>6.714999999999918</v>
       </c>
       <c r="Q31" s="6" t="n">
-        <v>0.4329999999999927</v>
+        <v>0.2169999999998709</v>
       </c>
       <c r="R31" s="6" t="n">
-        <v>20.3</v>
+        <v>25.7</v>
       </c>
       <c r="S31" s="6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T31" s="6" t="inlineStr">
         <is>
@@ -4575,25 +4581,25 @@
         <v>445</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>411.2489999999999</v>
+        <v>413.1979999999999</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>5.712</v>
+        <v>5.66</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>16.02999999999997</v>
       </c>
       <c r="Q32" s="6" t="n">
-        <v>0.4329999999999927</v>
+        <v>0.2160000000000082</v>
       </c>
       <c r="R32" s="6" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="S32" s="6" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T32" s="6" t="inlineStr">
         <is>

--- a/Resultats exp bag_couverts/Resultats exp bag_couverts/Tableau récapitulatif - new algo.xlsx
+++ b/Resultats exp bag_couverts/Resultats exp bag_couverts/Tableau récapitulatif - new algo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\Resultats exp bag_couverts\Resultats exp bag_couverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925BCB33-90B5-4C3C-96F1-7B96D9A1336E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A72450A-11C7-4A8C-AF00-2CEE94F123A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2257,7 +2257,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="A8" sqref="A8:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2362,31 +2362,31 @@
         <v>1</v>
       </c>
       <c r="K2" s="6">
-        <v>292.42399999999998</v>
+        <v>290.60400000000004</v>
       </c>
       <c r="L2" s="6">
         <v>199</v>
       </c>
       <c r="M2" s="6">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N2" s="6">
-        <v>161.114</v>
+        <v>125.94099999999997</v>
       </c>
       <c r="O2" s="6">
-        <v>9.4770000000000003</v>
+        <v>5.476</v>
       </c>
       <c r="P2" s="6">
-        <v>27.087</v>
+        <v>20.214999999999975</v>
       </c>
       <c r="Q2" s="6">
-        <v>1.4159999999999999</v>
+        <v>0.40399999999999636</v>
       </c>
       <c r="R2" s="6">
-        <v>55.1</v>
+        <v>43.3</v>
       </c>
       <c r="S2" s="6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>36</v>
@@ -2427,31 +2427,31 @@
         <v>1</v>
       </c>
       <c r="K3" s="6">
-        <v>173.88499999999999</v>
+        <v>172.87400000000002</v>
       </c>
       <c r="L3" s="6">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M3" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N3" s="6">
-        <v>80.876000000000005</v>
+        <v>63.284999999999968</v>
       </c>
       <c r="O3" s="6">
-        <v>5.3920000000000003</v>
+        <v>4.8680000000000003</v>
       </c>
       <c r="P3" s="6">
-        <v>8.4939999999999998</v>
+        <v>7.0779999999999745</v>
       </c>
       <c r="Q3" s="6">
-        <v>1.214</v>
+        <v>0.20100000000002183</v>
       </c>
       <c r="R3" s="6">
-        <v>46.5</v>
+        <v>36.6</v>
       </c>
       <c r="S3" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>37</v>
@@ -2539,31 +2539,31 @@
         <v>2</v>
       </c>
       <c r="K5" s="6">
-        <v>273.42099999999999</v>
+        <v>272.40999999999997</v>
       </c>
       <c r="L5" s="6">
         <v>141</v>
       </c>
       <c r="M5" s="6">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N5" s="6">
-        <v>142.21700000000001</v>
+        <v>92.68900000000005</v>
       </c>
       <c r="O5" s="6">
-        <v>4.5880000000000001</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="P5" s="6">
-        <v>17.187999999999999</v>
+        <v>8.8980000000000246</v>
       </c>
       <c r="Q5" s="6">
-        <v>1.01</v>
+        <v>0.20199999999999818</v>
       </c>
       <c r="R5" s="6">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S5" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>38</v>
@@ -2604,31 +2604,31 @@
         <v>2</v>
       </c>
       <c r="K6" s="6">
-        <v>229.476</v>
+        <v>226.44399999999996</v>
       </c>
       <c r="L6" s="6">
         <v>169</v>
       </c>
       <c r="M6" s="6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N6" s="6">
-        <v>133.441</v>
+        <v>90.380000000000223</v>
       </c>
       <c r="O6" s="6">
-        <v>8.8960000000000008</v>
+        <v>4.7569999999999997</v>
       </c>
       <c r="P6" s="6">
-        <v>20.625</v>
+        <v>8.4920000000000755</v>
       </c>
       <c r="Q6" s="6">
-        <v>4.0430000000000001</v>
+        <v>0.20299999999997453</v>
       </c>
       <c r="R6" s="6">
-        <v>58.2</v>
+        <v>39.9</v>
       </c>
       <c r="S6" s="6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>39</v>
@@ -2669,31 +2669,31 @@
         <v>2</v>
       </c>
       <c r="K7" s="6">
-        <v>498.46100000000001</v>
+        <v>490.779</v>
       </c>
       <c r="L7" s="6">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="M7" s="6">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N7" s="6">
-        <v>165.18</v>
+        <v>116.24700000000053</v>
       </c>
       <c r="O7" s="6">
-        <v>6.3529999999999998</v>
+        <v>5.0540000000000003</v>
       </c>
       <c r="P7" s="6">
-        <v>15.569000000000001</v>
+        <v>14.154999999999973</v>
       </c>
       <c r="Q7" s="6">
-        <v>1.2130000000000001</v>
+        <v>0.20199999999999818</v>
       </c>
       <c r="R7" s="6">
-        <v>33.1</v>
+        <v>23.7</v>
       </c>
       <c r="S7" s="6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>40</v>
@@ -2734,31 +2734,31 @@
         <v>1</v>
       </c>
       <c r="K8" s="6">
-        <v>289.971</v>
+        <v>288.45399999999995</v>
       </c>
       <c r="L8" s="6">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M8" s="6">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N8" s="6">
-        <v>139.458</v>
+        <v>87.703999999999922</v>
       </c>
       <c r="O8" s="6">
-        <v>5.8109999999999999</v>
+        <v>2.7410000000000001</v>
       </c>
       <c r="P8" s="6">
-        <v>14.076000000000001</v>
+        <v>8.4459999999999695</v>
       </c>
       <c r="Q8" s="6">
-        <v>1.7310000000000001</v>
+        <v>0.21600000000000819</v>
       </c>
       <c r="R8" s="6">
-        <v>48.1</v>
+        <v>30.4</v>
       </c>
       <c r="S8" s="6">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>41</v>
@@ -2799,31 +2799,31 @@
         <v>1</v>
       </c>
       <c r="K9" s="6">
-        <v>227.38300000000001</v>
+        <v>193.71000000000004</v>
       </c>
       <c r="L9" s="6">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="M9" s="6">
+        <v>22</v>
+      </c>
+      <c r="N9" s="6">
+        <v>51.976999999999748</v>
+      </c>
+      <c r="O9" s="6">
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="P9" s="6">
+        <v>3.8979999999999109</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0.21699999999998454</v>
+      </c>
+      <c r="R9" s="6">
+        <v>26.8</v>
+      </c>
+      <c r="S9" s="6">
         <v>20</v>
-      </c>
-      <c r="N9" s="6">
-        <v>85.54</v>
-      </c>
-      <c r="O9" s="6">
-        <v>4.2770000000000001</v>
-      </c>
-      <c r="P9" s="6">
-        <v>14.726000000000001</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>1.732</v>
-      </c>
-      <c r="R9" s="6">
-        <v>37.6</v>
-      </c>
-      <c r="S9" s="6">
-        <v>15</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>42</v>
@@ -2864,31 +2864,31 @@
         <v>1</v>
       </c>
       <c r="K10" s="6">
-        <v>62.581000000000003</v>
+        <v>51.322000000000003</v>
       </c>
       <c r="L10" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M10" s="6">
+        <v>10</v>
+      </c>
+      <c r="N10" s="6">
+        <v>28.586000000000013</v>
+      </c>
+      <c r="O10" s="6">
+        <v>3.573</v>
+      </c>
+      <c r="P10" s="6">
+        <v>10.394999999999982</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0.43299999999999272</v>
+      </c>
+      <c r="R10" s="6">
+        <v>55.7</v>
+      </c>
+      <c r="S10" s="6">
         <v>8</v>
-      </c>
-      <c r="N10" s="6">
-        <v>46.771999999999998</v>
-      </c>
-      <c r="O10" s="6">
-        <v>5.8460000000000001</v>
-      </c>
-      <c r="P10" s="6">
-        <v>14.941000000000001</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>1.5149999999999999</v>
-      </c>
-      <c r="R10" s="6">
-        <v>74.7</v>
-      </c>
-      <c r="S10" s="6">
-        <v>5</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>43</v>
@@ -2929,31 +2929,31 @@
         <v>2</v>
       </c>
       <c r="K11" s="6">
-        <v>281.52499999999998</v>
+        <v>262.46799999999996</v>
       </c>
       <c r="L11" s="6">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M11" s="6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N11" s="6">
-        <v>152.244</v>
+        <v>106.54500000000004</v>
       </c>
       <c r="O11" s="6">
-        <v>5.8559999999999999</v>
+        <v>4.843</v>
       </c>
       <c r="P11" s="6">
-        <v>19.274000000000001</v>
+        <v>8.4449999999999932</v>
       </c>
       <c r="Q11" s="6">
-        <v>0.65</v>
+        <v>0.21600000000000819</v>
       </c>
       <c r="R11" s="6">
-        <v>54.1</v>
+        <v>40.6</v>
       </c>
       <c r="S11" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="T11" s="6" t="s">
         <v>44</v>
@@ -2994,31 +2994,31 @@
         <v>2</v>
       </c>
       <c r="K12" s="6">
-        <v>221.75299999999999</v>
+        <v>214.28099999999995</v>
       </c>
       <c r="L12" s="6">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="M12" s="6">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N12" s="6">
-        <v>140.11000000000001</v>
+        <v>81.538000000000238</v>
       </c>
       <c r="O12" s="6">
-        <v>7.3739999999999997</v>
+        <v>3.5449999999999999</v>
       </c>
       <c r="P12" s="6">
-        <v>24.687000000000001</v>
+        <v>6.7119999999999891</v>
       </c>
       <c r="Q12" s="6">
-        <v>2.3820000000000001</v>
+        <v>0.64999999999997726</v>
       </c>
       <c r="R12" s="6">
-        <v>63.2</v>
+        <v>38.1</v>
       </c>
       <c r="S12" s="6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>45</v>
@@ -3059,31 +3059,31 @@
         <v>2</v>
       </c>
       <c r="K13" s="6">
-        <v>447.947</v>
+        <v>395.53899999999999</v>
       </c>
       <c r="L13" s="6">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M13" s="6">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N13" s="6">
-        <v>258.35199999999998</v>
+        <v>197.06600000000094</v>
       </c>
       <c r="O13" s="6">
-        <v>8.3339999999999996</v>
+        <v>7.2990000000000004</v>
       </c>
       <c r="P13" s="6">
-        <v>26.419</v>
+        <v>14.076000000000022</v>
       </c>
       <c r="Q13" s="6">
-        <v>1.0840000000000001</v>
+        <v>0.43299999999999272</v>
       </c>
       <c r="R13" s="6">
-        <v>57.7</v>
+        <v>49.8</v>
       </c>
       <c r="S13" s="6">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>46</v>
@@ -3124,31 +3124,31 @@
         <v>3</v>
       </c>
       <c r="K14" s="6">
-        <v>264.74299999999999</v>
+        <v>250.34200000000001</v>
       </c>
       <c r="L14" s="6">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M14" s="6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N14" s="6">
-        <v>76.984999999999999</v>
+        <v>46.778999999999911</v>
       </c>
       <c r="O14" s="6">
-        <v>2.851</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="P14" s="6">
-        <v>5.1980000000000004</v>
+        <v>3.6819999999999595</v>
       </c>
       <c r="Q14" s="6">
-        <v>1.298</v>
+        <v>0.21600000000000819</v>
       </c>
       <c r="R14" s="6">
-        <v>29.1</v>
+        <v>18.7</v>
       </c>
       <c r="S14" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T14" s="6" t="s">
         <v>47</v>
@@ -3189,31 +3189,31 @@
         <v>3</v>
       </c>
       <c r="K15" s="6">
-        <v>214.714</v>
+        <v>214.71500000000003</v>
       </c>
       <c r="L15" s="6">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M15" s="6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N15" s="6">
-        <v>131.12100000000001</v>
+        <v>90.717999999999734</v>
       </c>
       <c r="O15" s="6">
-        <v>6.9009999999999998</v>
+        <v>5.04</v>
       </c>
       <c r="P15" s="6">
-        <v>12.343999999999999</v>
+        <v>9.3120000000000118</v>
       </c>
       <c r="Q15" s="6">
-        <v>3.4649999999999999</v>
+        <v>0.41699999999991633</v>
       </c>
       <c r="R15" s="6">
-        <v>61.1</v>
+        <v>42.3</v>
       </c>
       <c r="S15" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T15" s="6" t="s">
         <v>48</v>
@@ -3254,31 +3254,31 @@
         <v>3</v>
       </c>
       <c r="K16" s="6">
-        <v>456.28399999999999</v>
+        <v>455.30900000000008</v>
       </c>
       <c r="L16" s="6">
         <v>178</v>
       </c>
       <c r="M16" s="6">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N16" s="6">
-        <v>254.239</v>
+        <v>204.19700000000046</v>
       </c>
       <c r="O16" s="6">
-        <v>8.2010000000000005</v>
+        <v>7.2930000000000001</v>
       </c>
       <c r="P16" s="6">
-        <v>25.555</v>
+        <v>13.426000000000158</v>
       </c>
       <c r="Q16" s="6">
-        <v>2.165</v>
+        <v>0.21600000000000819</v>
       </c>
       <c r="R16" s="6">
-        <v>55.7</v>
+        <v>44.8</v>
       </c>
       <c r="S16" s="6">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>49</v>
@@ -3319,31 +3319,31 @@
         <v>4</v>
       </c>
       <c r="K17" s="6">
-        <v>292.46199999999999</v>
+        <v>291.48700000000002</v>
       </c>
       <c r="L17" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M17" s="6">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N17" s="6">
-        <v>121.587</v>
+        <v>91.391999999999882</v>
       </c>
       <c r="O17" s="6">
-        <v>3.8</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="P17" s="6">
-        <v>10.61</v>
+        <v>10.394999999999982</v>
       </c>
       <c r="Q17" s="6">
-        <v>1.0820000000000001</v>
+        <v>0.21699999999998454</v>
       </c>
       <c r="R17" s="6">
-        <v>41.6</v>
+        <v>31.4</v>
       </c>
       <c r="S17" s="6">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="T17" s="6" t="s">
         <v>50</v>
@@ -3384,31 +3384,31 @@
         <v>4</v>
       </c>
       <c r="K18" s="6">
-        <v>237.995</v>
+        <v>234.20500000000004</v>
       </c>
       <c r="L18" s="6">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M18" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N18" s="6">
-        <v>113.04300000000001</v>
+        <v>84.456000000000017</v>
       </c>
       <c r="O18" s="6">
-        <v>7.0650000000000004</v>
+        <v>6.0330000000000004</v>
       </c>
       <c r="P18" s="6">
-        <v>16.675000000000001</v>
+        <v>9.3129999999999882</v>
       </c>
       <c r="Q18" s="6">
-        <v>1.732</v>
+        <v>0.21699999999998454</v>
       </c>
       <c r="R18" s="6">
-        <v>47.5</v>
+        <v>36.1</v>
       </c>
       <c r="S18" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T18" s="6" t="s">
         <v>51</v>
@@ -3449,31 +3449,31 @@
         <v>4</v>
       </c>
       <c r="K19" s="6">
-        <v>442.423</v>
+        <v>436.46800000000007</v>
       </c>
       <c r="L19" s="6">
         <v>185</v>
       </c>
       <c r="M19" s="6">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N19" s="6">
-        <v>237.99700000000001</v>
+        <v>152.78499999999974</v>
       </c>
       <c r="O19" s="6">
-        <v>6.6109999999999998</v>
+        <v>3.056</v>
       </c>
       <c r="P19" s="6">
-        <v>27.503</v>
+        <v>13.211000000000013</v>
       </c>
       <c r="Q19" s="6">
-        <v>1.3</v>
+        <v>0.43299999999999272</v>
       </c>
       <c r="R19" s="6">
-        <v>53.8</v>
+        <v>35</v>
       </c>
       <c r="S19" s="6">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="T19" s="6" t="s">
         <v>52</v>
@@ -3514,31 +3514,31 @@
         <v>1</v>
       </c>
       <c r="K20" s="6">
-        <v>230.672</v>
+        <v>229.05300000000005</v>
       </c>
       <c r="L20" s="6">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M20" s="6">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N20" s="6">
-        <v>159.446</v>
+        <v>127.07299999999987</v>
       </c>
       <c r="O20" s="6">
-        <v>8.3919999999999995</v>
+        <v>6.0510000000000002</v>
       </c>
       <c r="P20" s="6">
-        <v>26.298999999999999</v>
+        <v>14.572000000000003</v>
       </c>
       <c r="Q20" s="6">
-        <v>2.0230000000000001</v>
+        <v>0.40399999999999636</v>
       </c>
       <c r="R20" s="6">
-        <v>69.099999999999994</v>
+        <v>55.5</v>
       </c>
       <c r="S20" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T20" s="6" t="s">
         <v>53</v>
@@ -3579,31 +3579,31 @@
         <v>1</v>
       </c>
       <c r="K21" s="6">
-        <v>236.297</v>
+        <v>227.19399999999996</v>
       </c>
       <c r="L21" s="6">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M21" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N21" s="6">
-        <v>150.923</v>
+        <v>123.40800000000013</v>
       </c>
       <c r="O21" s="6">
-        <v>8.3849999999999998</v>
+        <v>7.2590000000000003</v>
       </c>
       <c r="P21" s="6">
-        <v>20.431999999999999</v>
+        <v>18.004999999999995</v>
       </c>
       <c r="Q21" s="6">
-        <v>2.024</v>
+        <v>0.40399999999999636</v>
       </c>
       <c r="R21" s="6">
-        <v>63.9</v>
+        <v>54.3</v>
       </c>
       <c r="S21" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T21" s="6" t="s">
         <v>54</v>
@@ -3644,31 +3644,31 @@
         <v>1</v>
       </c>
       <c r="K22" s="6">
-        <v>347.44299999999998</v>
+        <v>346.73500000000001</v>
       </c>
       <c r="L22" s="6">
         <v>207</v>
       </c>
       <c r="M22" s="6">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N22" s="6">
-        <v>220.4</v>
+        <v>180.65299999999979</v>
       </c>
       <c r="O22" s="6">
-        <v>7.11</v>
+        <v>7.5270000000000001</v>
       </c>
       <c r="P22" s="6">
-        <v>25.893999999999998</v>
+        <v>19.421000000000049</v>
       </c>
       <c r="Q22" s="6">
-        <v>1.0109999999999999</v>
+        <v>0.6069999999999709</v>
       </c>
       <c r="R22" s="6">
-        <v>63.4</v>
+        <v>52.1</v>
       </c>
       <c r="S22" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T22" s="6" t="s">
         <v>55</v>
@@ -3709,31 +3709,31 @@
         <v>2</v>
       </c>
       <c r="K23" s="6">
-        <v>233.09899999999999</v>
+        <v>226.22100000000006</v>
       </c>
       <c r="L23" s="6">
         <v>132</v>
       </c>
       <c r="M23" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N23" s="6">
-        <v>153.57599999999999</v>
+        <v>116.14200000000011</v>
       </c>
       <c r="O23" s="6">
-        <v>5.4850000000000003</v>
+        <v>4.3019999999999996</v>
       </c>
       <c r="P23" s="6">
-        <v>15.576000000000001</v>
+        <v>9.7100000000000364</v>
       </c>
       <c r="Q23" s="6">
-        <v>1.2150000000000001</v>
+        <v>0.6069999999999709</v>
       </c>
       <c r="R23" s="6">
-        <v>65.900000000000006</v>
+        <v>51.3</v>
       </c>
       <c r="S23" s="6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T23" s="6" t="s">
         <v>56</v>
@@ -3774,31 +3774,31 @@
         <v>2</v>
       </c>
       <c r="K24" s="6">
-        <v>240.94800000000001</v>
+        <v>240.54399999999998</v>
       </c>
       <c r="L24" s="6">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M24" s="6">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N24" s="6">
-        <v>177.42099999999999</v>
+        <v>116.32499999999993</v>
       </c>
       <c r="O24" s="6">
-        <v>9.8569999999999993</v>
+        <v>4.1539999999999999</v>
       </c>
       <c r="P24" s="6">
-        <v>23.466000000000001</v>
+        <v>13.149000000000001</v>
       </c>
       <c r="Q24" s="6">
-        <v>2.8319999999999999</v>
+        <v>0.20199999999999818</v>
       </c>
       <c r="R24" s="6">
-        <v>73.599999999999994</v>
+        <v>48.4</v>
       </c>
       <c r="S24" s="6">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="T24" s="6" t="s">
         <v>57</v>
@@ -3839,31 +3839,31 @@
         <v>2</v>
       </c>
       <c r="K25" s="6">
-        <v>201.08500000000001</v>
+        <v>198.25299999999993</v>
       </c>
       <c r="L25" s="6">
         <v>103</v>
       </c>
       <c r="M25" s="6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N25" s="6">
-        <v>146.666</v>
+        <v>103.37600000000032</v>
       </c>
       <c r="O25" s="6">
-        <v>9.1669999999999998</v>
+        <v>5.1689999999999996</v>
       </c>
       <c r="P25" s="6">
-        <v>29.129000000000001</v>
+        <v>14.36200000000008</v>
       </c>
       <c r="Q25" s="6">
-        <v>1.214</v>
+        <v>0.20300000000020191</v>
       </c>
       <c r="R25" s="6">
-        <v>72.900000000000006</v>
+        <v>52.1</v>
       </c>
       <c r="S25" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="T25" s="6" t="s">
         <v>58</v>
@@ -3904,31 +3904,31 @@
         <v>1</v>
       </c>
       <c r="K26" s="6">
-        <v>202.548</v>
+        <v>199.298</v>
       </c>
       <c r="L26" s="6">
         <v>178</v>
       </c>
       <c r="M26" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N26" s="6">
-        <v>95.314999999999998</v>
+        <v>70.618000000000052</v>
       </c>
       <c r="O26" s="6">
-        <v>5.0170000000000003</v>
+        <v>3.5310000000000001</v>
       </c>
       <c r="P26" s="6">
-        <v>12.131</v>
+        <v>9.964999999999975</v>
       </c>
       <c r="Q26" s="6">
-        <v>1.9490000000000001</v>
+        <v>0.64900000000000091</v>
       </c>
       <c r="R26" s="6">
-        <v>47.1</v>
+        <v>35.4</v>
       </c>
       <c r="S26" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T26" s="6" t="s">
         <v>59</v>
@@ -3969,31 +3969,31 @@
         <v>1</v>
       </c>
       <c r="K27" s="6">
-        <v>214.02799999999999</v>
+        <v>213.16199999999992</v>
       </c>
       <c r="L27" s="6">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M27" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N27" s="6">
-        <v>121.31100000000001</v>
+        <v>87.9549999999997</v>
       </c>
       <c r="O27" s="6">
-        <v>7.5819999999999999</v>
+        <v>5.8639999999999999</v>
       </c>
       <c r="P27" s="6">
-        <v>13.430999999999999</v>
+        <v>10.182000000000016</v>
       </c>
       <c r="Q27" s="6">
-        <v>1.2989999999999999</v>
+        <v>0.2159999999998945</v>
       </c>
       <c r="R27" s="6">
-        <v>56.7</v>
+        <v>41.3</v>
       </c>
       <c r="S27" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T27" s="6" t="s">
         <v>60</v>
@@ -4034,28 +4034,28 @@
         <v>1</v>
       </c>
       <c r="K28" s="6">
-        <v>262.44299999999998</v>
+        <v>260.60100000000011</v>
       </c>
       <c r="L28" s="6">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M28" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N28" s="6">
-        <v>94.771000000000001</v>
+        <v>61.979000000000724</v>
       </c>
       <c r="O28" s="6">
-        <v>4.9880000000000004</v>
+        <v>4.7679999999999998</v>
       </c>
       <c r="P28" s="6">
-        <v>9.3160000000000007</v>
+        <v>7.1490000000001146</v>
       </c>
       <c r="Q28" s="6">
-        <v>2.6</v>
+        <v>0.21600000000012187</v>
       </c>
       <c r="R28" s="6">
-        <v>36.1</v>
+        <v>23.8</v>
       </c>
       <c r="S28" s="6">
         <v>13</v>
@@ -4099,13 +4099,13 @@
         <v>2</v>
       </c>
       <c r="K29" s="6">
-        <v>7.7980000000000018</v>
+        <v>216.19400000000002</v>
       </c>
       <c r="L29" s="6">
-        <v>-1042</v>
+        <v>168</v>
       </c>
       <c r="M29" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N29" s="6">
         <v>91.061000000000263</v>
@@ -4120,7 +4120,7 @@
         <v>0.21699999999998454</v>
       </c>
       <c r="R29" s="6">
-        <v>1167.7</v>
+        <v>42.1</v>
       </c>
       <c r="S29" s="6">
         <v>28</v>
@@ -4164,31 +4164,31 @@
         <v>2</v>
       </c>
       <c r="K30" s="6">
-        <v>232.00700000000001</v>
+        <v>207.74599999999998</v>
       </c>
       <c r="L30" s="6">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M30" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N30" s="6">
-        <v>76.685000000000002</v>
+        <v>55.672000000000025</v>
       </c>
       <c r="O30" s="6">
-        <v>3.8340000000000001</v>
+        <v>3.2749999999999999</v>
       </c>
       <c r="P30" s="6">
-        <v>8.8819999999999997</v>
+        <v>5.6330000000000382</v>
       </c>
       <c r="Q30" s="6">
-        <v>1.7330000000000001</v>
+        <v>0.21600000000000819</v>
       </c>
       <c r="R30" s="6">
-        <v>33.1</v>
+        <v>26.8</v>
       </c>
       <c r="S30" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T30" s="6" t="s">
         <v>63</v>
@@ -4229,31 +4229,31 @@
         <v>2</v>
       </c>
       <c r="K31" s="6">
-        <v>232.982</v>
+        <v>232.22400000000005</v>
       </c>
       <c r="L31" s="6">
         <v>85</v>
       </c>
       <c r="M31" s="6">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N31" s="6">
-        <v>75.164000000000001</v>
+        <v>59.657999999999447</v>
       </c>
       <c r="O31" s="6">
-        <v>4.1760000000000002</v>
+        <v>3.9769999999999999</v>
       </c>
       <c r="P31" s="6">
-        <v>12.997</v>
+        <v>6.7149999999999181</v>
       </c>
       <c r="Q31" s="6">
-        <v>1.083</v>
+        <v>0.21699999999987085</v>
       </c>
       <c r="R31" s="6">
-        <v>32.299999999999997</v>
+        <v>25.7</v>
       </c>
       <c r="S31" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T31" s="6" t="s">
         <v>64</v>
@@ -4330,5 +4330,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resultats exp bag_couverts/Resultats exp bag_couverts/Tableau récapitulatif - new algo.xlsx
+++ b/Resultats exp bag_couverts/Resultats exp bag_couverts/Tableau récapitulatif - new algo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\Resultats exp bag_couverts\Resultats exp bag_couverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A72450A-11C7-4A8C-AF00-2CEE94F123A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA7276C-9D28-4361-90E0-A42C96B65260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2254,10 +2254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A472D21A-79DB-4329-B4B1-053817E0ED03}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD10"/>
+      <selection activeCell="G11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2929,19 +2929,19 @@
         <v>2</v>
       </c>
       <c r="K11" s="6">
-        <v>262.46799999999996</v>
+        <v>247.09199999999998</v>
       </c>
       <c r="L11" s="6">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="M11" s="6">
         <v>31</v>
       </c>
       <c r="N11" s="6">
-        <v>106.54500000000004</v>
+        <v>106.76200000000003</v>
       </c>
       <c r="O11" s="6">
-        <v>4.843</v>
+        <v>5.6189999999999998</v>
       </c>
       <c r="P11" s="6">
         <v>8.4449999999999932</v>
@@ -2950,10 +2950,10 @@
         <v>0.21600000000000819</v>
       </c>
       <c r="R11" s="6">
-        <v>40.6</v>
+        <v>43.2</v>
       </c>
       <c r="S11" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T11" s="6" t="s">
         <v>44</v>
@@ -4325,6 +4325,47 @@
       </c>
       <c r="U32" s="6" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="Q37">
+        <v>146</v>
+      </c>
+      <c r="R37">
+        <f>753-635</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M38">
+        <f>876-869</f>
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <v>113</v>
+      </c>
+      <c r="R38">
+        <f>876-756</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="Q39">
+        <v>118</v>
+      </c>
+      <c r="R39">
+        <f>964-832</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="Q41">
+        <f>SUM(Q37:Q39)</f>
+        <v>377</v>
+      </c>
+      <c r="R41">
+        <f>SUM(R37:R39)</f>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/Resultats exp bag_couverts/Resultats exp bag_couverts/Tableau récapitulatif - new algo.xlsx
+++ b/Resultats exp bag_couverts/Resultats exp bag_couverts/Tableau récapitulatif - new algo.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\Resultats exp bag_couverts\Resultats exp bag_couverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA7276C-9D28-4361-90E0-A42C96B65260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B237AC2-9DDD-4E45-B726-CE22ADCCA433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -257,13 +257,28 @@
   </si>
   <si>
     <t>Bag</t>
+  </si>
+  <si>
+    <t>SOMME :</t>
+  </si>
+  <si>
+    <t>déduction du graphique :</t>
+  </si>
+  <si>
+    <t>résultat de mon algo :</t>
+  </si>
+  <si>
+    <t>la différance avec le poids réel est de 60g</t>
+  </si>
+  <si>
+    <t>la différance avec le poids réel est de 28g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +296,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -333,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -354,6 +375,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,10 +804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1247,10 +1286,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED654359-3ED8-45BE-A982-9FC38D827CE8}">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2254,14 +2294,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A472D21A-79DB-4329-B4B1-053817E0ED03}">
-  <dimension ref="A1:U41"/>
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="17" max="17" width="12.1328125" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="29.86328125" customWidth="1"/>
     <col min="20" max="20" width="39.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2374,7 +2418,7 @@
         <v>125.94099999999997</v>
       </c>
       <c r="O2" s="6">
-        <v>5.476</v>
+        <v>5.7249999999999996</v>
       </c>
       <c r="P2" s="6">
         <v>20.214999999999975</v>
@@ -2386,7 +2430,7 @@
         <v>43.3</v>
       </c>
       <c r="S2" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>36</v>
@@ -2427,19 +2471,19 @@
         <v>1</v>
       </c>
       <c r="K3" s="6">
-        <v>172.87400000000002</v>
+        <v>158.72299999999996</v>
       </c>
       <c r="L3" s="6">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M3" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" s="6">
         <v>63.284999999999968</v>
       </c>
       <c r="O3" s="6">
-        <v>4.8680000000000003</v>
+        <v>5.274</v>
       </c>
       <c r="P3" s="6">
         <v>7.0779999999999745</v>
@@ -2448,10 +2492,10 @@
         <v>0.20100000000002183</v>
       </c>
       <c r="R3" s="6">
-        <v>36.6</v>
+        <v>39.9</v>
       </c>
       <c r="S3" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>37</v>
@@ -2539,19 +2583,19 @@
         <v>2</v>
       </c>
       <c r="K5" s="6">
-        <v>272.40999999999997</v>
+        <v>266.14200000000005</v>
       </c>
       <c r="L5" s="6">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M5" s="6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N5" s="6">
-        <v>92.68900000000005</v>
+        <v>91.881000000000057</v>
       </c>
       <c r="O5" s="6">
-        <v>2.5750000000000002</v>
+        <v>3.0630000000000002</v>
       </c>
       <c r="P5" s="6">
         <v>8.8980000000000246</v>
@@ -2560,10 +2604,10 @@
         <v>0.20199999999999818</v>
       </c>
       <c r="R5" s="6">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="S5" s="6">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>38</v>
@@ -2669,31 +2713,31 @@
         <v>2</v>
       </c>
       <c r="K7" s="6">
-        <v>490.779</v>
+        <v>462.07200000000012</v>
       </c>
       <c r="L7" s="6">
         <v>177</v>
       </c>
       <c r="M7" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" s="6">
-        <v>116.24700000000053</v>
+        <v>116.44800000000055</v>
       </c>
       <c r="O7" s="6">
-        <v>5.0540000000000003</v>
+        <v>5.2930000000000001</v>
       </c>
       <c r="P7" s="6">
         <v>14.154999999999973</v>
       </c>
       <c r="Q7" s="6">
-        <v>0.20199999999999818</v>
+        <v>0.20100000000002183</v>
       </c>
       <c r="R7" s="6">
-        <v>23.7</v>
+        <v>25.2</v>
       </c>
       <c r="S7" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>40</v>
@@ -2740,13 +2784,13 @@
         <v>160</v>
       </c>
       <c r="M8" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8" s="6">
-        <v>87.703999999999922</v>
+        <v>86.187999999999903</v>
       </c>
       <c r="O8" s="6">
-        <v>2.7410000000000001</v>
+        <v>3.448</v>
       </c>
       <c r="P8" s="6">
         <v>8.4459999999999695</v>
@@ -2755,10 +2799,10 @@
         <v>0.21600000000000819</v>
       </c>
       <c r="R8" s="6">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="S8" s="6">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="T8" s="6" t="s">
         <v>41</v>
@@ -2805,25 +2849,25 @@
         <v>178</v>
       </c>
       <c r="M9" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="6">
-        <v>51.976999999999748</v>
+        <v>52.192999999999756</v>
       </c>
       <c r="O9" s="6">
-        <v>2.5990000000000002</v>
+        <v>2.4849999999999999</v>
       </c>
       <c r="P9" s="6">
         <v>3.8979999999999109</v>
       </c>
       <c r="Q9" s="6">
-        <v>0.21699999999998454</v>
+        <v>0.21600000000000819</v>
       </c>
       <c r="R9" s="6">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="S9" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>42</v>
@@ -2876,7 +2920,7 @@
         <v>28.586000000000013</v>
       </c>
       <c r="O10" s="6">
-        <v>3.573</v>
+        <v>4.0839999999999996</v>
       </c>
       <c r="P10" s="6">
         <v>10.394999999999982</v>
@@ -2888,7 +2932,7 @@
         <v>55.7</v>
       </c>
       <c r="S10" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>43</v>
@@ -2994,19 +3038,19 @@
         <v>2</v>
       </c>
       <c r="K12" s="6">
-        <v>214.28099999999995</v>
+        <v>219.04600000000005</v>
       </c>
       <c r="L12" s="6">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M12" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N12" s="6">
-        <v>81.538000000000238</v>
+        <v>83.271000000000299</v>
       </c>
       <c r="O12" s="6">
-        <v>3.5449999999999999</v>
+        <v>3.9649999999999999</v>
       </c>
       <c r="P12" s="6">
         <v>6.7119999999999891</v>
@@ -3015,10 +3059,10 @@
         <v>0.64999999999997726</v>
       </c>
       <c r="R12" s="6">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="S12" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>45</v>
@@ -3071,7 +3115,7 @@
         <v>197.06600000000094</v>
       </c>
       <c r="O13" s="6">
-        <v>7.2990000000000004</v>
+        <v>9.3840000000000003</v>
       </c>
       <c r="P13" s="6">
         <v>14.076000000000022</v>
@@ -3083,7 +3127,7 @@
         <v>49.8</v>
       </c>
       <c r="S13" s="6">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>46</v>
@@ -3136,7 +3180,7 @@
         <v>46.778999999999911</v>
       </c>
       <c r="O14" s="6">
-        <v>2.2280000000000002</v>
+        <v>2.339</v>
       </c>
       <c r="P14" s="6">
         <v>3.6819999999999595</v>
@@ -3148,7 +3192,7 @@
         <v>18.7</v>
       </c>
       <c r="S14" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T14" s="6" t="s">
         <v>47</v>
@@ -3201,7 +3245,7 @@
         <v>90.717999999999734</v>
       </c>
       <c r="O15" s="6">
-        <v>5.04</v>
+        <v>5.3360000000000003</v>
       </c>
       <c r="P15" s="6">
         <v>9.3120000000000118</v>
@@ -3213,7 +3257,7 @@
         <v>42.3</v>
       </c>
       <c r="S15" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T15" s="6" t="s">
         <v>48</v>
@@ -3266,7 +3310,7 @@
         <v>204.19700000000046</v>
       </c>
       <c r="O16" s="6">
-        <v>7.2930000000000001</v>
+        <v>8.8780000000000001</v>
       </c>
       <c r="P16" s="6">
         <v>13.426000000000158</v>
@@ -3278,7 +3322,7 @@
         <v>44.8</v>
       </c>
       <c r="S16" s="6">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>49</v>
@@ -3325,13 +3369,13 @@
         <v>106</v>
       </c>
       <c r="M17" s="6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N17" s="6">
-        <v>91.391999999999882</v>
+        <v>90.741999999999905</v>
       </c>
       <c r="O17" s="6">
-        <v>3.2639999999999998</v>
+        <v>3.63</v>
       </c>
       <c r="P17" s="6">
         <v>10.394999999999982</v>
@@ -3340,10 +3384,10 @@
         <v>0.21699999999998454</v>
       </c>
       <c r="R17" s="6">
-        <v>31.4</v>
+        <v>31.1</v>
       </c>
       <c r="S17" s="6">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T17" s="6" t="s">
         <v>50</v>
@@ -3396,7 +3440,7 @@
         <v>84.456000000000017</v>
       </c>
       <c r="O18" s="6">
-        <v>6.0330000000000004</v>
+        <v>6.4969999999999999</v>
       </c>
       <c r="P18" s="6">
         <v>9.3129999999999882</v>
@@ -3408,7 +3452,7 @@
         <v>36.1</v>
       </c>
       <c r="S18" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T18" s="6" t="s">
         <v>51</v>
@@ -3461,7 +3505,7 @@
         <v>152.78499999999974</v>
       </c>
       <c r="O19" s="6">
-        <v>3.056</v>
+        <v>3.395</v>
       </c>
       <c r="P19" s="6">
         <v>13.211000000000013</v>
@@ -3473,7 +3517,7 @@
         <v>35</v>
       </c>
       <c r="S19" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="T19" s="6" t="s">
         <v>52</v>
@@ -3514,19 +3558,19 @@
         <v>1</v>
       </c>
       <c r="K20" s="6">
-        <v>229.05300000000005</v>
+        <v>220.35399999999998</v>
       </c>
       <c r="L20" s="6">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M20" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N20" s="6">
         <v>127.07299999999987</v>
       </c>
       <c r="O20" s="6">
-        <v>6.0510000000000002</v>
+        <v>6.3540000000000001</v>
       </c>
       <c r="P20" s="6">
         <v>14.572000000000003</v>
@@ -3535,10 +3579,10 @@
         <v>0.40399999999999636</v>
       </c>
       <c r="R20" s="6">
-        <v>55.5</v>
+        <v>57.7</v>
       </c>
       <c r="S20" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T20" s="6" t="s">
         <v>53</v>
@@ -3591,7 +3635,7 @@
         <v>123.40800000000013</v>
       </c>
       <c r="O21" s="6">
-        <v>7.2590000000000003</v>
+        <v>8.2270000000000003</v>
       </c>
       <c r="P21" s="6">
         <v>18.004999999999995</v>
@@ -3603,7 +3647,7 @@
         <v>54.3</v>
       </c>
       <c r="S21" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T21" s="6" t="s">
         <v>54</v>
@@ -3656,7 +3700,7 @@
         <v>180.65299999999979</v>
       </c>
       <c r="O22" s="6">
-        <v>7.5270000000000001</v>
+        <v>8.2110000000000003</v>
       </c>
       <c r="P22" s="6">
         <v>19.421000000000049</v>
@@ -3668,7 +3712,7 @@
         <v>52.1</v>
       </c>
       <c r="S22" s="6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T22" s="6" t="s">
         <v>55</v>
@@ -3709,19 +3753,19 @@
         <v>2</v>
       </c>
       <c r="K23" s="6">
-        <v>226.22100000000006</v>
+        <v>231.47999999999996</v>
       </c>
       <c r="L23" s="6">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M23" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N23" s="6">
         <v>116.14200000000011</v>
       </c>
       <c r="O23" s="6">
-        <v>4.3019999999999996</v>
+        <v>4.6459999999999999</v>
       </c>
       <c r="P23" s="6">
         <v>9.7100000000000364</v>
@@ -3730,10 +3774,10 @@
         <v>0.6069999999999709</v>
       </c>
       <c r="R23" s="6">
-        <v>51.3</v>
+        <v>50.2</v>
       </c>
       <c r="S23" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T23" s="6" t="s">
         <v>56</v>
@@ -3786,7 +3830,7 @@
         <v>116.32499999999993</v>
       </c>
       <c r="O24" s="6">
-        <v>4.1539999999999999</v>
+        <v>4.4740000000000002</v>
       </c>
       <c r="P24" s="6">
         <v>13.149000000000001</v>
@@ -3798,7 +3842,7 @@
         <v>48.4</v>
       </c>
       <c r="S24" s="6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T24" s="6" t="s">
         <v>57</v>
@@ -3851,7 +3895,7 @@
         <v>103.37600000000032</v>
       </c>
       <c r="O25" s="6">
-        <v>5.1689999999999996</v>
+        <v>5.4409999999999998</v>
       </c>
       <c r="P25" s="6">
         <v>14.36200000000008</v>
@@ -3863,7 +3907,7 @@
         <v>52.1</v>
       </c>
       <c r="S25" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T25" s="6" t="s">
         <v>58</v>
@@ -3904,19 +3948,19 @@
         <v>1</v>
       </c>
       <c r="K26" s="6">
-        <v>199.298</v>
+        <v>201.68100000000004</v>
       </c>
       <c r="L26" s="6">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M26" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N26" s="6">
         <v>70.618000000000052</v>
       </c>
       <c r="O26" s="6">
-        <v>3.5310000000000001</v>
+        <v>3.7170000000000001</v>
       </c>
       <c r="P26" s="6">
         <v>9.964999999999975</v>
@@ -3925,10 +3969,10 @@
         <v>0.64900000000000091</v>
       </c>
       <c r="R26" s="6">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="S26" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T26" s="6" t="s">
         <v>59</v>
@@ -4040,13 +4084,13 @@
         <v>164</v>
       </c>
       <c r="M28" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N28" s="6">
-        <v>61.979000000000724</v>
+        <v>62.629000000000588</v>
       </c>
       <c r="O28" s="6">
-        <v>4.7679999999999998</v>
+        <v>4.8179999999999996</v>
       </c>
       <c r="P28" s="6">
         <v>7.1490000000001146</v>
@@ -4055,7 +4099,7 @@
         <v>0.21600000000012187</v>
       </c>
       <c r="R28" s="6">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="S28" s="6">
         <v>13</v>
@@ -4099,19 +4143,19 @@
         <v>2</v>
       </c>
       <c r="K29" s="6">
-        <v>216.19400000000002</v>
+        <v>234.17500000000001</v>
       </c>
       <c r="L29" s="6">
-        <v>168</v>
+        <v>-877</v>
       </c>
       <c r="M29" s="6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N29" s="6">
         <v>91.061000000000263</v>
       </c>
       <c r="O29" s="6">
-        <v>3.2519999999999998</v>
+        <v>3.9590000000000001</v>
       </c>
       <c r="P29" s="6">
         <v>6.4990000000000236</v>
@@ -4120,10 +4164,10 @@
         <v>0.21699999999998454</v>
       </c>
       <c r="R29" s="6">
-        <v>42.1</v>
+        <v>38.9</v>
       </c>
       <c r="S29" s="6">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T29" s="6" t="s">
         <v>62</v>
@@ -4164,19 +4208,19 @@
         <v>2</v>
       </c>
       <c r="K30" s="6">
-        <v>207.74599999999998</v>
+        <v>230.92499999999995</v>
       </c>
       <c r="L30" s="6">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M30" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N30" s="6">
         <v>55.672000000000025</v>
       </c>
       <c r="O30" s="6">
-        <v>3.2749999999999999</v>
+        <v>3.9769999999999999</v>
       </c>
       <c r="P30" s="6">
         <v>5.6330000000000382</v>
@@ -4185,10 +4229,10 @@
         <v>0.21600000000000819</v>
       </c>
       <c r="R30" s="6">
-        <v>26.8</v>
+        <v>24.1</v>
       </c>
       <c r="S30" s="6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T30" s="6" t="s">
         <v>63</v>
@@ -4241,7 +4285,7 @@
         <v>59.657999999999447</v>
       </c>
       <c r="O31" s="6">
-        <v>3.9769999999999999</v>
+        <v>4.5890000000000004</v>
       </c>
       <c r="P31" s="6">
         <v>6.7149999999999181</v>
@@ -4253,7 +4297,7 @@
         <v>25.7</v>
       </c>
       <c r="S31" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T31" s="6" t="s">
         <v>64</v>
@@ -4294,31 +4338,31 @@
         <v>3</v>
       </c>
       <c r="K32" s="6">
-        <v>1094.375</v>
+        <v>1090.259</v>
       </c>
       <c r="L32" s="6">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M32" s="6">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="N32" s="6">
-        <v>569.13499999999999</v>
+        <v>413.19799999999987</v>
       </c>
       <c r="O32" s="6">
-        <v>8.6229999999999993</v>
+        <v>6.6639999999999997</v>
       </c>
       <c r="P32" s="6">
-        <v>37.579000000000001</v>
+        <v>16.029999999999973</v>
       </c>
       <c r="Q32" s="6">
-        <v>1.2989999999999999</v>
+        <v>0.21600000000000819</v>
       </c>
       <c r="R32" s="6">
-        <v>52</v>
+        <v>37.9</v>
       </c>
       <c r="S32" s="6">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T32" s="6" t="s">
         <v>65</v>
@@ -4327,46 +4371,172 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="13:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="16:20" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="S35" s="9"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="16:20" x14ac:dyDescent="0.45">
+      <c r="R36" s="11"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="16:20" x14ac:dyDescent="0.45">
       <c r="Q37">
-        <v>146</v>
-      </c>
-      <c r="R37">
+        <v>132</v>
+      </c>
+      <c r="R37" s="11">
+        <f>964-832</f>
+        <v>132</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="16:20" x14ac:dyDescent="0.45">
+      <c r="Q38">
+        <v>120</v>
+      </c>
+      <c r="R38" s="11">
+        <f>876-753</f>
+        <v>123</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="T38" s="10"/>
+    </row>
+    <row r="39" spans="16:20" x14ac:dyDescent="0.45">
+      <c r="Q39">
+        <v>116</v>
+      </c>
+      <c r="R39" s="11">
         <f>753-635</f>
         <v>118</v>
       </c>
-    </row>
-    <row r="38" spans="13:18" x14ac:dyDescent="0.45">
-      <c r="M38">
-        <f>876-869</f>
-        <v>7</v>
-      </c>
-      <c r="Q38">
-        <v>113</v>
-      </c>
-      <c r="R38">
-        <f>876-756</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="13:18" x14ac:dyDescent="0.45">
-      <c r="Q39">
-        <v>118</v>
-      </c>
-      <c r="R39">
-        <f>964-832</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="S39" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="16:20" x14ac:dyDescent="0.45">
+      <c r="R40" s="11"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" spans="16:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P41" t="s">
+        <v>73</v>
+      </c>
       <c r="Q41">
         <f>SUM(Q37:Q39)</f>
-        <v>377</v>
-      </c>
-      <c r="R41">
+        <v>368</v>
+      </c>
+      <c r="R41" s="11">
         <f>SUM(R37:R39)</f>
+        <v>373</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="16:20" x14ac:dyDescent="0.45">
+      <c r="R42" s="11"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="10"/>
+    </row>
+    <row r="43" spans="16:20" x14ac:dyDescent="0.45">
+      <c r="R43" s="11"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="10"/>
+    </row>
+    <row r="44" spans="16:20" x14ac:dyDescent="0.45">
+      <c r="Q44">
+        <v>160</v>
+      </c>
+      <c r="R44" s="11">
+        <f>1061-901</f>
+        <v>160</v>
+      </c>
+      <c r="S44" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T44" s="10"/>
+    </row>
+    <row r="45" spans="16:20" x14ac:dyDescent="0.45">
+      <c r="Q45">
+        <v>175</v>
+      </c>
+      <c r="R45" s="11">
+        <f>902-714</f>
+        <v>188</v>
+      </c>
+      <c r="S45" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T45" s="10"/>
+    </row>
+    <row r="46" spans="16:20" x14ac:dyDescent="0.45">
+      <c r="Q46">
+        <v>35</v>
+      </c>
+      <c r="R46" s="11">
+        <f>679-672</f>
+        <v>7</v>
+      </c>
+      <c r="S46" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T46" s="10"/>
+    </row>
+    <row r="47" spans="16:20" x14ac:dyDescent="0.45">
+      <c r="R47" s="11"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="10"/>
+    </row>
+    <row r="48" spans="16:20" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="P48" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q48">
+        <f>SUM(Q44:Q46)</f>
         <v>370</v>
       </c>
+      <c r="R48" s="11">
+        <f>SUM(R44:R46)</f>
+        <v>355</v>
+      </c>
+      <c r="S48" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="T48" s="10"/>
+    </row>
+    <row r="49" spans="18:20" x14ac:dyDescent="0.45">
+      <c r="R49" s="11"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="10"/>
+    </row>
+    <row r="50" spans="18:20" x14ac:dyDescent="0.45">
+      <c r="R50" s="11"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="10"/>
+    </row>
+    <row r="51" spans="18:20" x14ac:dyDescent="0.45">
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+    </row>
+    <row r="52" spans="18:20" x14ac:dyDescent="0.45">
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Resultats exp bag_couverts/Resultats exp bag_couverts/Tableau récapitulatif - new algo.xlsx
+++ b/Resultats exp bag_couverts/Resultats exp bag_couverts/Tableau récapitulatif - new algo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\Resultats exp bag_couverts\Resultats exp bag_couverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B237AC2-9DDD-4E45-B726-CE22ADCCA433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A31587-13E5-42B7-B98D-92F71EA68036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -380,18 +380,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2297,8 +2293,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3753,13 +3749,13 @@
         <v>2</v>
       </c>
       <c r="K23" s="6">
-        <v>231.47999999999996</v>
+        <v>226.22100000000006</v>
       </c>
       <c r="L23" s="6">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M23" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N23" s="6">
         <v>116.14200000000011</v>
@@ -3774,7 +3770,7 @@
         <v>0.6069999999999709</v>
       </c>
       <c r="R23" s="6">
-        <v>50.2</v>
+        <v>51.3</v>
       </c>
       <c r="S23" s="6">
         <v>25</v>
@@ -3948,13 +3944,13 @@
         <v>1</v>
       </c>
       <c r="K26" s="6">
-        <v>201.68100000000004</v>
+        <v>199.298</v>
       </c>
       <c r="L26" s="6">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M26" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N26" s="6">
         <v>70.618000000000052</v>
@@ -3969,7 +3965,7 @@
         <v>0.64900000000000091</v>
       </c>
       <c r="R26" s="6">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="S26" s="6">
         <v>19</v>
@@ -4143,13 +4139,13 @@
         <v>2</v>
       </c>
       <c r="K29" s="6">
-        <v>234.17500000000001</v>
+        <v>216.19400000000002</v>
       </c>
       <c r="L29" s="6">
-        <v>-877</v>
+        <v>168</v>
       </c>
       <c r="M29" s="6">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N29" s="6">
         <v>91.061000000000263</v>
@@ -4164,7 +4160,7 @@
         <v>0.21699999999998454</v>
       </c>
       <c r="R29" s="6">
-        <v>38.9</v>
+        <v>42.1</v>
       </c>
       <c r="S29" s="6">
         <v>23</v>
@@ -4208,13 +4204,13 @@
         <v>2</v>
       </c>
       <c r="K30" s="6">
-        <v>230.92499999999995</v>
+        <v>170.48699999999997</v>
       </c>
       <c r="L30" s="6">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M30" s="6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N30" s="6">
         <v>55.672000000000025</v>
@@ -4229,7 +4225,7 @@
         <v>0.21600000000000819</v>
       </c>
       <c r="R30" s="6">
-        <v>24.1</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="S30" s="6">
         <v>14</v>
@@ -4338,13 +4334,13 @@
         <v>3</v>
       </c>
       <c r="K32" s="6">
-        <v>1090.259</v>
+        <v>1073.5820000000001</v>
       </c>
       <c r="L32" s="6">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M32" s="6">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N32" s="6">
         <v>413.19799999999987</v>
@@ -4359,7 +4355,7 @@
         <v>0.21600000000000819</v>
       </c>
       <c r="R32" s="6">
-        <v>37.9</v>
+        <v>38.5</v>
       </c>
       <c r="S32" s="6">
         <v>62</v>
@@ -4382,19 +4378,19 @@
       <c r="T35" s="10"/>
     </row>
     <row r="36" spans="16:20" x14ac:dyDescent="0.45">
-      <c r="R36" s="11"/>
-      <c r="S36" s="12"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="9"/>
       <c r="T36" s="10"/>
     </row>
     <row r="37" spans="16:20" x14ac:dyDescent="0.45">
       <c r="Q37">
         <v>132</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R37" s="10">
         <f>964-832</f>
         <v>132</v>
       </c>
-      <c r="S37" s="13" t="s">
+      <c r="S37" s="11" t="s">
         <v>44</v>
       </c>
       <c r="T37" s="10"/>
@@ -4403,11 +4399,11 @@
       <c r="Q38">
         <v>120</v>
       </c>
-      <c r="R38" s="11">
+      <c r="R38" s="10">
         <f>876-753</f>
         <v>123</v>
       </c>
-      <c r="S38" s="13" t="s">
+      <c r="S38" s="11" t="s">
         <v>45</v>
       </c>
       <c r="T38" s="10"/>
@@ -4416,18 +4412,18 @@
       <c r="Q39">
         <v>116</v>
       </c>
-      <c r="R39" s="11">
+      <c r="R39" s="10">
         <f>753-635</f>
         <v>118</v>
       </c>
-      <c r="S39" s="13" t="s">
+      <c r="S39" s="11" t="s">
         <v>46</v>
       </c>
       <c r="T39" s="10"/>
     </row>
     <row r="40" spans="16:20" x14ac:dyDescent="0.45">
-      <c r="R40" s="11"/>
-      <c r="S40" s="12"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="9"/>
       <c r="T40" s="10"/>
     </row>
     <row r="41" spans="16:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -4438,34 +4434,34 @@
         <f>SUM(Q37:Q39)</f>
         <v>368</v>
       </c>
-      <c r="R41" s="11">
+      <c r="R41" s="10">
         <f>SUM(R37:R39)</f>
         <v>373</v>
       </c>
-      <c r="S41" s="13" t="s">
+      <c r="S41" s="11" t="s">
         <v>76</v>
       </c>
       <c r="T41" s="10"/>
     </row>
     <row r="42" spans="16:20" x14ac:dyDescent="0.45">
-      <c r="R42" s="11"/>
-      <c r="S42" s="12"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="9"/>
       <c r="T42" s="10"/>
     </row>
     <row r="43" spans="16:20" x14ac:dyDescent="0.45">
-      <c r="R43" s="11"/>
-      <c r="S43" s="12"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="9"/>
       <c r="T43" s="10"/>
     </row>
     <row r="44" spans="16:20" x14ac:dyDescent="0.45">
       <c r="Q44">
         <v>160</v>
       </c>
-      <c r="R44" s="11">
+      <c r="R44" s="10">
         <f>1061-901</f>
         <v>160</v>
       </c>
-      <c r="S44" s="14" t="s">
+      <c r="S44" s="12" t="s">
         <v>41</v>
       </c>
       <c r="T44" s="10"/>
@@ -4474,11 +4470,11 @@
       <c r="Q45">
         <v>175</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R45" s="10">
         <f>902-714</f>
         <v>188</v>
       </c>
-      <c r="S45" s="14" t="s">
+      <c r="S45" s="12" t="s">
         <v>42</v>
       </c>
       <c r="T45" s="10"/>
@@ -4487,18 +4483,20 @@
       <c r="Q46">
         <v>35</v>
       </c>
-      <c r="R46" s="11">
-        <f>679-672</f>
-        <v>7</v>
-      </c>
-      <c r="S46" s="14" t="s">
+      <c r="R46" s="10">
+        <v>34</v>
+      </c>
+      <c r="S46" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="T46" s="10"/>
+      <c r="T46" s="10">
+        <f>679-645</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="47" spans="16:20" x14ac:dyDescent="0.45">
-      <c r="R47" s="11"/>
-      <c r="S47" s="12"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="9"/>
       <c r="T47" s="10"/>
     </row>
     <row r="48" spans="16:20" ht="28.5" x14ac:dyDescent="0.45">
@@ -4509,23 +4507,23 @@
         <f>SUM(Q44:Q46)</f>
         <v>370</v>
       </c>
-      <c r="R48" s="11">
+      <c r="R48" s="10">
         <f>SUM(R44:R46)</f>
-        <v>355</v>
-      </c>
-      <c r="S48" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="S48" s="11" t="s">
         <v>77</v>
       </c>
       <c r="T48" s="10"/>
     </row>
     <row r="49" spans="18:20" x14ac:dyDescent="0.45">
-      <c r="R49" s="11"/>
-      <c r="S49" s="12"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="9"/>
       <c r="T49" s="10"/>
     </row>
     <row r="50" spans="18:20" x14ac:dyDescent="0.45">
-      <c r="R50" s="11"/>
-      <c r="S50" s="12"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="9"/>
       <c r="T50" s="10"/>
     </row>
     <row r="51" spans="18:20" x14ac:dyDescent="0.45">
